--- a/导表工具/Excels/战斗表.xlsx
+++ b/导表工具/Excels/战斗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="11240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战斗单位表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>##</t>
   </si>
@@ -264,6 +264,12 @@
     <t>Knight</t>
   </si>
   <si>
+    <t>帝国战士</t>
+  </si>
+  <si>
+    <t>帝国长弓手</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -297,10 +303,10 @@
     <t>描述</t>
   </si>
   <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>铁弓</t>
+    <t>制式铁剑</t>
+  </si>
+  <si>
+    <t>制式铁弓</t>
   </si>
   <si>
     <t>橡木杖</t>
@@ -309,7 +315,7 @@
     <t>圣言书</t>
   </si>
   <si>
-    <t>铁枪</t>
+    <t>制式铁枪</t>
   </si>
   <si>
     <t>SkillType&amp;default=Damage</t>
@@ -375,8 +381,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -402,20 +408,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -430,11 +422,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,6 +433,22 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,7 +462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,9 +477,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,48 +515,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,6 +528,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,13 +566,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +668,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,31 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,91 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,43 +763,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,16 +824,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,148 +862,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1739,7 +1745,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1934,13 +1940,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="6" width="11.6071428571429" customWidth="1"/>
     <col min="7" max="7" width="13.0892857142857" customWidth="1"/>
@@ -2301,6 +2307,100 @@
         <v>6</v>
       </c>
       <c r="Q8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9">
+        <v>10010</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>1001</v>
+      </c>
+      <c r="F9">
+        <v>1001</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10">
+        <v>10020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>1002</v>
+      </c>
+      <c r="F10">
+        <v>1002</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
       </c>
     </row>
@@ -2320,7 +2420,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2367,7 +2467,7 @@
         <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
@@ -2416,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>63</v>
@@ -2426,7 +2526,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="M3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -2434,7 +2534,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -2473,7 +2573,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>0.35</v>
@@ -2512,7 +2612,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>0.3</v>
@@ -2551,7 +2651,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>0.35</v>
@@ -2590,7 +2690,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -2666,7 +2766,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -2691,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2737,10 +2837,10 @@
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>67</v>
@@ -2778,7 +2878,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2789,7 +2889,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2803,7 +2903,7 @@
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2817,7 +2917,7 @@
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2834,7 +2934,7 @@
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2858,7 +2958,7 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2884,22 +2984,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -2922,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -2957,25 +3057,25 @@
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="3"/>
@@ -2989,7 +3089,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -3003,7 +3103,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3023,7 +3123,7 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3043,13 +3143,13 @@
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
         <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>113</v>
       </c>
       <c r="G7">
         <v>3</v>
